--- a/Exercice/06_Oeuvres_d'art/Matrice.xlsx
+++ b/Exercice/06_Oeuvres_d'art/Matrice.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nferrand\Desktop\Ex_BDD\BDD\Exercice\06_Oeuvres_d'art\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC34A2FC-6730-4D35-87B5-9D7C28CE56A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C02197EA-6974-4B68-A90C-9338D7E7BAF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-25320" yWindow="-4440" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>œuvre_type</t>
   </si>
@@ -91,6 +91,12 @@
   </si>
   <si>
     <t>adr_ville</t>
+  </si>
+  <si>
+    <t>œuvre_id</t>
+  </si>
+  <si>
+    <t>artiste_id</t>
   </si>
 </sst>
 </file>
@@ -113,7 +119,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -144,8 +150,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -182,21 +194,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -219,8 +216,51 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -231,7 +271,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -248,26 +288,41 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -550,251 +605,276 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:T25"/>
+  <dimension ref="A2:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
-      <c r="S2" s="13"/>
-      <c r="T2" s="13"/>
-    </row>
-    <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="18"/>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="10"/>
+      <c r="B4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="16"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="9"/>
+      <c r="B5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="7" t="s">
+      <c r="C5" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="9"/>
+      <c r="B6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="9"/>
+      <c r="B7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="C7" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="9"/>
+      <c r="B8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="C8" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="9"/>
+      <c r="B9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="C9" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="9"/>
+      <c r="B10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="C10" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="8"/>
+      <c r="B11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="8"/>
+      <c r="B12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="8"/>
+      <c r="B13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="8"/>
+      <c r="B14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="8"/>
+      <c r="B15" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="9"/>
+      <c r="B16" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="C16" s="13"/>
+      <c r="E16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="9"/>
+      <c r="B17" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="C17" s="13"/>
+      <c r="E17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="9"/>
+      <c r="B18" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="C18" s="13"/>
+      <c r="E18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="9"/>
+      <c r="B19" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="8" t="s">
+      <c r="C19" s="13"/>
+      <c r="E19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="9"/>
+      <c r="B20" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="N3" s="9" t="s">
+      <c r="C20" s="13"/>
+      <c r="E20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="9"/>
+      <c r="B21" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="9" t="s">
+      <c r="C21" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="9"/>
+      <c r="B22" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="9" t="s">
+      <c r="C22" s="13"/>
+      <c r="F22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="9"/>
+      <c r="B23" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="Q3" s="9" t="s">
+      <c r="C23" s="13"/>
+      <c r="F23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="9"/>
+      <c r="B24" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="R3" s="9" t="s">
+      <c r="C24" s="13"/>
+      <c r="F24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="9"/>
+      <c r="B25" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="S3" s="9" t="s">
+      <c r="C25" s="13"/>
+      <c r="F25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="9"/>
+      <c r="B26" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="T3" s="9" t="s">
+      <c r="C26" s="13"/>
+      <c r="F26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="9"/>
+      <c r="B27" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="11"/>
-      <c r="B4" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="11"/>
-      <c r="B5" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="11"/>
-      <c r="B6" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="11"/>
-      <c r="B7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="11"/>
-      <c r="B8" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="11"/>
-      <c r="B9" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="12"/>
-      <c r="B10" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="12"/>
-      <c r="B11" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="12"/>
-      <c r="B12" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="12"/>
-      <c r="B13" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="11"/>
-      <c r="B14" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="11"/>
-      <c r="B15" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="11"/>
-      <c r="B16" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="11"/>
-      <c r="B17" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="11"/>
-      <c r="B18" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="11"/>
-      <c r="B19" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="11"/>
-      <c r="B20" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="11"/>
-      <c r="B21" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="11"/>
-      <c r="B22" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="11"/>
-      <c r="B23" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="11"/>
-      <c r="B24" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="11"/>
-      <c r="B25" s="5" t="s">
-        <v>21</v>
+      <c r="C27" s="13"/>
+      <c r="F27">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="N2:T2"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="A19:A25"/>
-    <mergeCell ref="C2:H2"/>
+  <mergeCells count="3">
+    <mergeCell ref="A5:A10"/>
+    <mergeCell ref="A16:A20"/>
+    <mergeCell ref="A21:A27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/Exercice/06_Oeuvres_d'art/Matrice.xlsx
+++ b/Exercice/06_Oeuvres_d'art/Matrice.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nferrand\Desktop\Ex_BDD\BDD\Exercice\06_Oeuvres_d'art\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C02197EA-6974-4B68-A90C-9338D7E7BAF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B2E22CF-DD94-4C25-95C2-1E2979AC012D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="-4440" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20925" yWindow="-2385" windowWidth="18900" windowHeight="11055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
   <si>
     <t>œuvre_type</t>
   </si>
@@ -97,6 +97,12 @@
   </si>
   <si>
     <t>artiste_id</t>
+  </si>
+  <si>
+    <t>type_id</t>
+  </si>
+  <si>
+    <t>type_nom</t>
   </si>
 </sst>
 </file>
@@ -119,7 +125,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -156,6 +162,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE2EFD9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -271,7 +283,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -295,35 +307,38 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -605,10 +620,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:F27"/>
+  <dimension ref="A2:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -620,253 +635,272 @@
     <col min="6" max="6" width="6.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
-      <c r="F2" s="18"/>
-    </row>
-    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F2" s="17"/>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="11" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="10"/>
+      <c r="G3" s="19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="9"/>
       <c r="B4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-    </row>
-    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="9"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="18"/>
       <c r="B5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="9"/>
+      <c r="C5" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="18"/>
       <c r="B6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="9"/>
+      <c r="C6" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="18"/>
       <c r="B7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="9"/>
+      <c r="C7" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="18"/>
       <c r="B8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="9"/>
+      <c r="C8" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="18"/>
       <c r="B9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="9"/>
+      <c r="C9" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="18"/>
       <c r="B10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8"/>
       <c r="B11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="8"/>
       <c r="B12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="13"/>
+      <c r="C12" s="12"/>
       <c r="D12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="8"/>
       <c r="B13" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="13"/>
+      <c r="C13" s="12"/>
       <c r="D13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="8"/>
       <c r="B14" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="13"/>
+      <c r="C14" s="12"/>
       <c r="D14">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="8"/>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="9"/>
+      <c r="C15" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="18"/>
       <c r="B16" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="13"/>
+      <c r="C16" s="12"/>
       <c r="E16">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="9"/>
+    <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="18"/>
       <c r="B17" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="13"/>
+      <c r="C17" s="12"/>
       <c r="E17">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="9"/>
+    <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="18"/>
       <c r="B18" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="13"/>
+      <c r="C18" s="12"/>
       <c r="E18">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="9"/>
+    <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="18"/>
       <c r="B19" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="13"/>
+      <c r="C19" s="12"/>
       <c r="E19">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="9"/>
+    <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="18"/>
       <c r="B20" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="13"/>
+      <c r="C20" s="12"/>
       <c r="E20">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="9"/>
+    <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="18"/>
       <c r="B21" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="9"/>
+      <c r="C21" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="18"/>
       <c r="B22" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="13"/>
+      <c r="C22" s="12"/>
       <c r="F22">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="9"/>
+    <row r="23" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="18"/>
       <c r="B23" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="13"/>
+      <c r="C23" s="12"/>
       <c r="F23">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="9"/>
+    <row r="24" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="18"/>
       <c r="B24" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="13"/>
+      <c r="C24" s="12"/>
       <c r="F24">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="9"/>
+    <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="18"/>
       <c r="B25" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="13"/>
+      <c r="C25" s="12"/>
       <c r="F25">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="9"/>
+    <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="18"/>
       <c r="B26" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C26" s="13"/>
+      <c r="C26" s="12"/>
       <c r="F26">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="9"/>
+    <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="18"/>
       <c r="B27" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="13"/>
+      <c r="C27" s="12"/>
       <c r="F27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="G29">
         <v>1</v>
       </c>
     </row>
